--- a/HW2/outFiles/ConfusionMatrix.xlsx
+++ b/HW2/outFiles/ConfusionMatrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luolingwei/Desktop/Program/Classes/BDS/NYU-Big-Data-Science/HW2/outFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC7FA37-EF0E-A049-AF46-BE9450F5795E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7592360-FA31-444C-860B-8ECC911B4182}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16500" yWindow="1420" windowWidth="21900" windowHeight="17440" xr2:uid="{A3617D4F-0623-504D-B618-4EDF43814AC9}"/>
+    <workbookView xWindow="18500" yWindow="1760" windowWidth="21900" windowHeight="17440" xr2:uid="{A3617D4F-0623-504D-B618-4EDF43814AC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -574,7 +574,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" customHeight="1"/>
@@ -611,10 +611,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="b">
         <v>1</v>
@@ -631,10 +631,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="b">
         <v>1</v>
@@ -645,10 +645,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="b">
         <v>1</v>
@@ -659,10 +659,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="b">
         <v>1</v>
@@ -673,10 +673,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3" t="b">
         <v>1</v>
@@ -687,10 +687,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3" t="b">
         <v>1</v>
@@ -701,10 +701,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3" t="b">
         <v>1</v>
@@ -715,10 +715,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" s="4" t="b">
         <v>1</v>
@@ -729,10 +729,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D10" s="5" t="b">
         <v>1</v>
@@ -743,10 +743,10 @@
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="b">
         <v>1</v>
@@ -757,10 +757,10 @@
         <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2" t="b">
         <v>1</v>
@@ -771,10 +771,10 @@
         <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="b">
         <v>1</v>
@@ -785,10 +785,10 @@
         <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2" t="b">
         <v>1</v>
@@ -799,10 +799,10 @@
         <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2" t="b">
         <v>1</v>
@@ -813,10 +813,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="b">
         <v>1</v>
@@ -827,10 +827,10 @@
         <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D17" s="4" t="b">
         <v>1</v>
@@ -841,10 +841,10 @@
         <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D18" s="3" t="b">
         <v>1</v>
@@ -855,10 +855,10 @@
         <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D19" s="3" t="b">
         <v>1</v>
@@ -869,10 +869,10 @@
         <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D20" s="3" t="b">
         <v>1</v>
@@ -883,10 +883,10 @@
         <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D21" s="3" t="b">
         <v>1</v>
@@ -897,10 +897,10 @@
         <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D22" s="3" t="b">
         <v>1</v>
@@ -911,10 +911,10 @@
         <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D23" s="3" t="b">
         <v>1</v>
@@ -925,10 +925,10 @@
         <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D24" s="3" t="b">
         <v>1</v>
@@ -939,10 +939,10 @@
         <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D25" s="3" t="b">
         <v>1</v>

--- a/HW2/outFiles/ConfusionMatrix.xlsx
+++ b/HW2/outFiles/ConfusionMatrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luolingwei/Desktop/Program/Classes/BDS/NYU-Big-Data-Science/HW2/outFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7592360-FA31-444C-860B-8ECC911B4182}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8650EFCE-11EA-D64C-B4DF-15E99C4B2D48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18500" yWindow="1760" windowWidth="21900" windowHeight="17440" xr2:uid="{A3617D4F-0623-504D-B618-4EDF43814AC9}"/>
+    <workbookView xWindow="14780" yWindow="1440" windowWidth="21900" windowHeight="17440" xr2:uid="{A3617D4F-0623-504D-B618-4EDF43814AC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Kmeans++ | Cosine</t>
+    <t>Kmeans | Cosine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +574,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" customHeight="1"/>
@@ -611,10 +611,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="b">
         <v>1</v>
@@ -631,10 +631,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="b">
         <v>1</v>
@@ -645,10 +645,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="b">
         <v>1</v>
@@ -659,10 +659,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="b">
         <v>1</v>
@@ -673,10 +673,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="b">
         <v>1</v>
@@ -687,10 +687,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="b">
         <v>1</v>
@@ -701,10 +701,10 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="b">
         <v>1</v>
@@ -715,10 +715,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4" t="b">
         <v>1</v>
@@ -729,10 +729,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D10" s="5" t="b">
         <v>1</v>
@@ -743,10 +743,10 @@
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="b">
         <v>1</v>
@@ -757,10 +757,10 @@
         <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="b">
         <v>1</v>
@@ -771,10 +771,10 @@
         <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="b">
         <v>1</v>
@@ -785,10 +785,10 @@
         <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="b">
         <v>1</v>
@@ -799,10 +799,10 @@
         <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="b">
         <v>1</v>
@@ -813,10 +813,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="b">
         <v>1</v>
@@ -827,10 +827,10 @@
         <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D17" s="4" t="b">
         <v>1</v>
